--- a/pred_ohlcv/54_21/2020-01-20 STRAT ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-20 STRAT ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>-69159.11671609001</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -574,7 +574,7 @@
         <v>-88431.87318465</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>-88529.41348464999</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>-79860.65118464999</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>-79860.65118464999</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>-78978.65118464999</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>-86780.98828465</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>-88050.98238464999</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>-84470.96328464999</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>-84470.96328464999</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>-84470.96328464999</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>-84470.96328464999</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>-87432.84588464999</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>-76220.16758464999</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>-76220.16758464999</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>-78405.16758464999</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>-78405.16758464999</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>-78405.16758464999</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>-79342.16758464999</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>-88512.17748464999</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>-87684.68808464998</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>-87684.68808464998</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>-87904.10118464999</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -5748,7 +5748,7 @@
         <v>-56110.75113248997</v>
       </c>
       <c r="H206">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -5774,7 +5774,7 @@
         <v>-77067.46873248997</v>
       </c>
       <c r="H207">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -5800,7 +5800,7 @@
         <v>-89437.55603248997</v>
       </c>
       <c r="H208">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -5826,7 +5826,7 @@
         <v>-89437.55603248997</v>
       </c>
       <c r="H209">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -5852,7 +5852,7 @@
         <v>-89437.55603248997</v>
       </c>
       <c r="H210">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -5878,7 +5878,7 @@
         <v>-83402.13723248997</v>
       </c>
       <c r="H211">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -5904,7 +5904,7 @@
         <v>-85877.40073248997</v>
       </c>
       <c r="H212">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -5930,7 +5930,7 @@
         <v>-87798.14233248997</v>
       </c>
       <c r="H213">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -5956,7 +5956,7 @@
         <v>-87798.14233248997</v>
       </c>
       <c r="H214">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -5982,7 +5982,7 @@
         <v>-87710.31253248996</v>
       </c>
       <c r="H215">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -6008,7 +6008,7 @@
         <v>-88203.59053248996</v>
       </c>
       <c r="H216">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -6034,7 +6034,7 @@
         <v>-92555.89303248997</v>
       </c>
       <c r="H217">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -6060,7 +6060,7 @@
         <v>-88047.71693248997</v>
       </c>
       <c r="H218">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -6086,7 +6086,7 @@
         <v>-88047.71693248997</v>
       </c>
       <c r="H219">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -6138,7 +6138,7 @@
         <v>-105767.22748954</v>
       </c>
       <c r="H221">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -12092,7 +12092,7 @@
         <v>-214863.73645599</v>
       </c>
       <c r="H450">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="451" spans="1:8">
@@ -12118,7 +12118,7 @@
         <v>-214835.77335599</v>
       </c>
       <c r="H451">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="452" spans="1:8">
@@ -12144,7 +12144,7 @@
         <v>-216760.05945599</v>
       </c>
       <c r="H452">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="453" spans="1:8">
@@ -12170,7 +12170,7 @@
         <v>-211127.33535599</v>
       </c>
       <c r="H453">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="454" spans="1:8">
@@ -12196,7 +12196,7 @@
         <v>-208623.89235599</v>
       </c>
       <c r="H454">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="455" spans="1:8">
@@ -12222,7 +12222,7 @@
         <v>-213587.22555599</v>
       </c>
       <c r="H455">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="456" spans="1:8">
@@ -12248,7 +12248,7 @@
         <v>-213932.93855599</v>
       </c>
       <c r="H456">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="457" spans="1:8">
@@ -12274,7 +12274,7 @@
         <v>-214248.67905599</v>
       </c>
       <c r="H457">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="458" spans="1:8">
@@ -12300,7 +12300,7 @@
         <v>-215194.85985599</v>
       </c>
       <c r="H458">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="459" spans="1:8">
@@ -12326,7 +12326,7 @@
         <v>-215194.85985599</v>
       </c>
       <c r="H459">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="460" spans="1:8">
@@ -12352,7 +12352,7 @@
         <v>-214574.85985599</v>
       </c>
       <c r="H460">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="461" spans="1:8">
@@ -12378,7 +12378,7 @@
         <v>-220229.98315599</v>
       </c>
       <c r="H461">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="462" spans="1:8">
@@ -12404,7 +12404,7 @@
         <v>-223217.50875599</v>
       </c>
       <c r="H462">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="463" spans="1:8">
@@ -12430,7 +12430,7 @@
         <v>-223217.50875599</v>
       </c>
       <c r="H463">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="464" spans="1:8">
@@ -12456,7 +12456,7 @@
         <v>-222175.07875599</v>
       </c>
       <c r="H464">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="465" spans="1:8">
@@ -12482,7 +12482,7 @@
         <v>-221499.88115599</v>
       </c>
       <c r="H465">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="466" spans="1:8">
@@ -12508,7 +12508,7 @@
         <v>-223633.14605599</v>
       </c>
       <c r="H466">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="467" spans="1:8">
@@ -12534,7 +12534,7 @@
         <v>-223633.14605599</v>
       </c>
       <c r="H467">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="468" spans="1:8">
@@ -12560,7 +12560,7 @@
         <v>-224060.29535599</v>
       </c>
       <c r="H468">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="469" spans="1:8">
@@ -12586,7 +12586,7 @@
         <v>-224543.15165599</v>
       </c>
       <c r="H469">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="470" spans="1:8">
@@ -12612,7 +12612,7 @@
         <v>-224289.78065599</v>
       </c>
       <c r="H470">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="471" spans="1:8">
@@ -12638,7 +12638,7 @@
         <v>-223756.63425599</v>
       </c>
       <c r="H471">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="472" spans="1:8">
@@ -12664,7 +12664,7 @@
         <v>-223756.63425599</v>
       </c>
       <c r="H472">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="473" spans="1:8">
@@ -12690,7 +12690,7 @@
         <v>-224247.80925599</v>
       </c>
       <c r="H473">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="474" spans="1:8">
@@ -13054,7 +13054,7 @@
         <v>-233812.22395599</v>
       </c>
       <c r="H487">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="488" spans="1:8">
@@ -13080,7 +13080,7 @@
         <v>-233388.69840257</v>
       </c>
       <c r="H488">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="489" spans="1:8">
@@ -13288,7 +13288,7 @@
         <v>-233316.96410257</v>
       </c>
       <c r="H496">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="497" spans="1:8">
@@ -13314,7 +13314,7 @@
         <v>-233047.57410257</v>
       </c>
       <c r="H497">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="498" spans="1:8">
@@ -13340,7 +13340,7 @@
         <v>-233047.57410257</v>
       </c>
       <c r="H498">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="499" spans="1:8">
@@ -13366,7 +13366,7 @@
         <v>-233788.57410257</v>
       </c>
       <c r="H499">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="500" spans="1:8">
@@ -13392,7 +13392,7 @@
         <v>-233777.57410257</v>
       </c>
       <c r="H500">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="501" spans="1:8">
@@ -13418,7 +13418,7 @@
         <v>-234346.65210257</v>
       </c>
       <c r="H501">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="502" spans="1:8">
@@ -13444,7 +13444,7 @@
         <v>-234092.77750257</v>
       </c>
       <c r="H502">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="503" spans="1:8">
@@ -13470,7 +13470,7 @@
         <v>-238384.98700257</v>
       </c>
       <c r="H503">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="504" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-20 STRAT ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-20 STRAT ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>-69159.11671609001</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -574,7 +574,7 @@
         <v>-88431.87318465</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>-88529.41348464999</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>-79860.65118464999</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>-79860.65118464999</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>-78978.65118464999</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>-86780.98828465</v>
       </c>
       <c r="H12">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>-88050.98238464999</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>-84470.96328464999</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>-84470.96328464999</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>-84470.96328464999</v>
       </c>
       <c r="H16">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>-84470.96328464999</v>
       </c>
       <c r="H17">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>-87432.84588464999</v>
       </c>
       <c r="H18">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>-76220.16758464999</v>
       </c>
       <c r="H19">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>-76220.16758464999</v>
       </c>
       <c r="H20">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>-78405.16758464999</v>
       </c>
       <c r="H21">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>-78405.16758464999</v>
       </c>
       <c r="H22">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>-78405.16758464999</v>
       </c>
       <c r="H23">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>-79342.16758464999</v>
       </c>
       <c r="H24">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>-88512.17748464999</v>
       </c>
       <c r="H25">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>-87684.68808464998</v>
       </c>
       <c r="H26">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>-87684.68808464998</v>
       </c>
       <c r="H27">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>-87904.10118464999</v>
       </c>
       <c r="H28">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>-63609.13767831001</v>
       </c>
       <c r="H84">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>-64516.67167831001</v>
       </c>
       <c r="H103">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>-62628.91907831001</v>
       </c>
       <c r="H106">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>-64142.97917831001</v>
       </c>
       <c r="H107">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>-64181.66557831001</v>
       </c>
       <c r="H110">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>-64181.66557831001</v>
       </c>
       <c r="H111">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -5722,7 +5722,7 @@
         <v>-65521.60428115997</v>
       </c>
       <c r="H205">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -5748,7 +5748,7 @@
         <v>-56110.75113248997</v>
       </c>
       <c r="H206">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -5774,7 +5774,7 @@
         <v>-77067.46873248997</v>
       </c>
       <c r="H207">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -5800,7 +5800,7 @@
         <v>-89437.55603248997</v>
       </c>
       <c r="H208">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -5826,7 +5826,7 @@
         <v>-89437.55603248997</v>
       </c>
       <c r="H209">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -5852,7 +5852,7 @@
         <v>-89437.55603248997</v>
       </c>
       <c r="H210">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -5878,7 +5878,7 @@
         <v>-83402.13723248997</v>
       </c>
       <c r="H211">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -5904,7 +5904,7 @@
         <v>-85877.40073248997</v>
       </c>
       <c r="H212">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -5930,7 +5930,7 @@
         <v>-87798.14233248997</v>
       </c>
       <c r="H213">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -5956,7 +5956,7 @@
         <v>-87798.14233248997</v>
       </c>
       <c r="H214">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -5982,7 +5982,7 @@
         <v>-87710.31253248996</v>
       </c>
       <c r="H215">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -6008,7 +6008,7 @@
         <v>-88203.59053248996</v>
       </c>
       <c r="H216">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -6034,7 +6034,7 @@
         <v>-92555.89303248997</v>
       </c>
       <c r="H217">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -6060,7 +6060,7 @@
         <v>-88047.71693248997</v>
       </c>
       <c r="H218">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -12092,7 +12092,7 @@
         <v>-214863.73645599</v>
       </c>
       <c r="H450">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="451" spans="1:8">
@@ -12118,7 +12118,7 @@
         <v>-214835.77335599</v>
       </c>
       <c r="H451">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="452" spans="1:8">
@@ -12144,7 +12144,7 @@
         <v>-216760.05945599</v>
       </c>
       <c r="H452">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="453" spans="1:8">
@@ -12170,7 +12170,7 @@
         <v>-211127.33535599</v>
       </c>
       <c r="H453">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="454" spans="1:8">
@@ -12196,7 +12196,7 @@
         <v>-208623.89235599</v>
       </c>
       <c r="H454">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="455" spans="1:8">
@@ -12222,7 +12222,7 @@
         <v>-213587.22555599</v>
       </c>
       <c r="H455">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="456" spans="1:8">
@@ -12248,7 +12248,7 @@
         <v>-213932.93855599</v>
       </c>
       <c r="H456">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="457" spans="1:8">
@@ -12274,7 +12274,7 @@
         <v>-214248.67905599</v>
       </c>
       <c r="H457">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="458" spans="1:8">
@@ -12300,7 +12300,7 @@
         <v>-215194.85985599</v>
       </c>
       <c r="H458">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="459" spans="1:8">
@@ -12326,7 +12326,7 @@
         <v>-215194.85985599</v>
       </c>
       <c r="H459">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="460" spans="1:8">
@@ -12352,7 +12352,7 @@
         <v>-214574.85985599</v>
       </c>
       <c r="H460">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="461" spans="1:8">
@@ -12378,7 +12378,7 @@
         <v>-220229.98315599</v>
       </c>
       <c r="H461">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="462" spans="1:8">
@@ -12404,7 +12404,7 @@
         <v>-223217.50875599</v>
       </c>
       <c r="H462">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="463" spans="1:8">
@@ -12430,7 +12430,7 @@
         <v>-223217.50875599</v>
       </c>
       <c r="H463">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="464" spans="1:8">
@@ -12456,7 +12456,7 @@
         <v>-222175.07875599</v>
       </c>
       <c r="H464">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="465" spans="1:8">
@@ -12482,7 +12482,7 @@
         <v>-221499.88115599</v>
       </c>
       <c r="H465">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="466" spans="1:8">
@@ -12508,7 +12508,7 @@
         <v>-223633.14605599</v>
       </c>
       <c r="H466">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="467" spans="1:8">
@@ -12534,7 +12534,7 @@
         <v>-223633.14605599</v>
       </c>
       <c r="H467">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="468" spans="1:8">
@@ -12560,7 +12560,7 @@
         <v>-224060.29535599</v>
       </c>
       <c r="H468">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="469" spans="1:8">
@@ -12586,7 +12586,7 @@
         <v>-224543.15165599</v>
       </c>
       <c r="H469">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="470" spans="1:8">
@@ -12612,7 +12612,7 @@
         <v>-224289.78065599</v>
       </c>
       <c r="H470">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="471" spans="1:8">
@@ -12638,7 +12638,7 @@
         <v>-223756.63425599</v>
       </c>
       <c r="H471">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="472" spans="1:8">
@@ -12664,7 +12664,7 @@
         <v>-223756.63425599</v>
       </c>
       <c r="H472">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="473" spans="1:8">
@@ -12690,7 +12690,7 @@
         <v>-224247.80925599</v>
       </c>
       <c r="H473">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="474" spans="1:8">
@@ -13080,7 +13080,7 @@
         <v>-233388.69840257</v>
       </c>
       <c r="H488">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="489" spans="1:8">
@@ -13288,7 +13288,7 @@
         <v>-233316.96410257</v>
       </c>
       <c r="H496">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="497" spans="1:8">
@@ -13314,7 +13314,7 @@
         <v>-233047.57410257</v>
       </c>
       <c r="H497">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="498" spans="1:8">
@@ -13340,7 +13340,7 @@
         <v>-233047.57410257</v>
       </c>
       <c r="H498">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="499" spans="1:8">
@@ -13366,7 +13366,7 @@
         <v>-233788.57410257</v>
       </c>
       <c r="H499">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="500" spans="1:8">
@@ -13392,7 +13392,7 @@
         <v>-233777.57410257</v>
       </c>
       <c r="H500">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="501" spans="1:8">
@@ -13418,7 +13418,7 @@
         <v>-234346.65210257</v>
       </c>
       <c r="H501">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="502" spans="1:8">
@@ -13444,7 +13444,7 @@
         <v>-234092.77750257</v>
       </c>
       <c r="H502">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="503" spans="1:8">
@@ -13470,7 +13470,7 @@
         <v>-238384.98700257</v>
       </c>
       <c r="H503">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="504" spans="1:8">
@@ -13496,7 +13496,7 @@
         <v>-238379.98700257</v>
       </c>
       <c r="H504">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
